--- a/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_valid.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL207605</t>
+          <t>CHEMBL206876</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(Cc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(Cc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>448.48</v>
+        <v>458.48</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
         <v>8</v>
       </c>
-      <c r="J2" t="n">
-        <v>9</v>
-      </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>107.73</v>
+        <v>124.89</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB530&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL206876</t>
+          <t>CHEMBL425418</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(Cc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(Cc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>458.48</v>
+        <v>491.55</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -652,16 +652,16 @@
         <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>124.89</v>
+        <v>115.66</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7987B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB5A0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL379655</t>
+          <t>CHEMBL207820</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccc(SC)cc4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4F)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccc(SC)cc4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4F)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>422.51</v>
+        <v>395.39</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>70.43000000000001</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7984A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BAF10&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL382354</t>
+          <t>CHEMBL470316</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(Br)c(NCc4ccccn4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(Br)c(NCc4ccccn4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>415.45</v>
+        <v>411.26</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>94.22</v>
+        <v>91.83</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BAEA0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL377708</t>
+          <t>CHEMBL382354</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN5CCCC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN5CCCC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>516.6</v>
+        <v>415.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>102.77</v>
+        <v>94.22</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBD80&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL380226</t>
+          <t>CHEMBL439154</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCC#N)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCC#N)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>459.47</v>
+        <v>473.53</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
         <v>9</v>
       </c>
-      <c r="J7" t="n">
-        <v>8</v>
-      </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>136.21</v>
+        <v>99.53</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB1B0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL208384</t>
+          <t>CHEMBL380515</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN)n4)c3n2)cc(OC)c1OC</t>
+          <t>CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN)n4)c3n2)cc(OC)c1OC</t>
+          <t>CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>477.53</v>
+        <v>433.47</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>138.44</v>
+        <v>99.53</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5B8660&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL379279</t>
+          <t>CHEMBL207834</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCO)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCO)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>463.49</v>
+        <v>476.54</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>119.76</v>
+        <v>125.55</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBCA0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL382192</t>
+          <t>CHEMBL207126</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COC(=O)CNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>CNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COC(=O)CNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>CNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,17 +1119,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>519.5599999999999</v>
+        <v>461.52</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
       </c>
       <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
         <v>9</v>
       </c>
-      <c r="J10" t="n">
-        <v>11</v>
-      </c>
       <c r="K10" t="n">
         <v>4</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>125.83</v>
+        <v>99.53</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBBC0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,52 +1160,52 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL207721</t>
+          <t>C13567629</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C=CCN1C(=O)[C@@]2(C(C#N)=C(N)N(c3ccc(Cl)cc3)C3=C2C(=O)CCC3)c2ccccc21</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C=CCN1C(=O)[C@@]2(C(C#N)=C(N)N(c3ccc(Cl)cc3)C3=C2C(=O)CCC3)c2ccccc21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>G2 inactive</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>456.93</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CCNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>CCNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>461.52</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
         <v>2</v>
       </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4</v>
-      </c>
       <c r="M11" t="n">
-        <v>99.53</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7989E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8F90&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C13567629</t>
+          <t>C08739297</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C=CCN1C(=O)[C@@]2(C(C#N)=C(N)N(c3ccc(Cl)cc3)C3=C2C(=O)CCC3)c2ccccc21</t>
+          <t>CC1(C)C[C@@]2(CCC[NH+](Cc3nc(O)c4c(n3)-c3ccccc3CC43CCCC3)C2)CCO1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C=CCN1C(=O)[C@@]2(C(C#N)=C(N)N(c3ccc(Cl)cc3)C3=C2C(=O)CCC3)c2ccccc21</t>
+          <t>CC1(C)C[C@@]2(CCC[NH+](Cc3nc(O)c4c(n3)-c3ccccc3CC43CCCC3)C2)CCO1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>456.93</v>
+        <v>448.63</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>90.43000000000001</v>
+        <v>59.68</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BDAF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EADC0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C08739297</t>
+          <t>C39440379</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CC1(C)C[C@@]2(CCC[NH+](Cc3nc(O)c4c(n3)-c3ccccc3CC43CCCC3)C2)CCO1</t>
+          <t>O=C(NCc1cc2cc(Cl)ccc2[nH]1)C1=CNN2[C@H](C(F)(F)F)C[C@@H](c3ccco3)N[C@@H]12</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CC1(C)C[C@@]2(CCC[NH+](Cc3nc(O)c4c(n3)-c3ccccc3CC43CCCC3)C2)CCO1</t>
+          <t>O=C(NCc1cc2cc(Cl)ccc2[nH]1)C1=CNN2[C@H](C(F)(F)F)C[C@@H](c3ccco3)N[C@@H]12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>448.63</v>
+        <v>465.86</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>59.68</v>
+        <v>85.33</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BD1C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAAB0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C39440379</t>
+          <t>C39667868</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=C(NCc1cc2cc(Cl)ccc2[nH]1)C1=CNN2[C@H](C(F)(F)F)C[C@@H](c3ccco3)N[C@@H]12</t>
+          <t>CCOC(=O)[C@H]1C2=C(C[C@@H](C)CC2)S[C@@H]1NC(=O)CSc1nc(C)c(CCC(=O)O)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=C(NCc1cc2cc(Cl)ccc2[nH]1)C1=CNN2[C@H](C(F)(F)F)C[C@@H](c3ccco3)N[C@@H]12</t>
+          <t>CCOC(=O)[C@H]1C2=C(C[C@@H](C)CC2)S[C@@H]1NC(=O)CSc1nc(C)c(CCC(=O)O)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>465.86</v>
+        <v>495.62</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>85.33</v>
+        <v>138.45</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BE030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA9D0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C39667868</t>
+          <t>C48436064</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@H]1C2=C(C[C@@H](C)CC2)S[C@@H]1NC(=O)CSc1nc(C)c(CCC(=O)O)c(=O)[nH]1</t>
+          <t>COCc1ccc(-c2nc3c(C)nn(C4CCCCC4)c3[nH]2)o1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@H]1C2=C(C[C@@H](C)CC2)S[C@@H]1NC(=O)CSc1nc(C)c(CCC(=O)O)c(=O)[nH]1</t>
+          <t>COCc1ccc(-c2nc3c(C)nn(C4CCCCC4)c3[nH]2)o1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>495.62</v>
+        <v>314.39</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
         <v>3</v>
       </c>
-      <c r="I15" t="n">
-        <v>9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
       <c r="M15" t="n">
-        <v>138.45</v>
+        <v>68.87</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BE110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E87B0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C48436064</t>
+          <t>C39362494</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COCc1ccc(-c2nc3c(C)nn(C4CCCCC4)c3[nH]2)o1</t>
+          <t>CCOc1ccc(N2[C@@H](Cc3cc(=O)[nH]c(=O)[nH]3)N=N[C@H]2S[C@H](C)CC)cc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COCc1ccc(-c2nc3c(C)nn(C4CCCCC4)c3[nH]2)o1</t>
+          <t>CCOc1ccc(N2[C@H](S[C@H](C)CC)N=N[C@@H]2Cc2cc(=O)[nH]c(=O)[nH]2)cc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>314.39</v>
+        <v>403.51</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>68.87</v>
+        <v>102.91</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BE6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0120&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C39362494</t>
+          <t>C09423983</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CCOc1ccc(N2[C@@H](Cc3cc(=O)[nH]c(=O)[nH]3)N=N[C@H]2S[C@H](C)CC)cc1</t>
+          <t>Cn1c(N/N=C/c2cccs2)nc2c1c(=O)n(Cc1ccccc1Cl)c(=O)n2C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CCOc1ccc(N2[C@H](S[C@H](C)CC)N=N[C@@H]2Cc2cc(=O)[nH]c(=O)[nH]2)cc1</t>
+          <t>Cn1c(N/N=C/c2cccs2)nc2c1c(=O)n(Cc1ccccc1Cl)c(=O)n2C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>403.51</v>
+        <v>428.91</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
         <v>5</v>
       </c>
-      <c r="J17" t="n">
-        <v>8</v>
-      </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>102.91</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0190&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C09423983</t>
+          <t>C14380407</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cn1c(N/N=C/c2cccs2)nc2c1c(=O)n(Cc1ccccc1Cl)c(=O)n2C</t>
+          <t>CC(C)Cc1nnc(NC(=O)C2CCN(c3ccccc3[N+](=O)[O-])CC2)s1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cn1c(N/N=C/c2cccs2)nc2c1c(=O)n(Cc1ccccc1Cl)c(=O)n2C</t>
+          <t>CC(C)Cc1nnc(NC(=O)C2CCN(c3ccccc3[N+](=O)[O-])CC2)s1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>428.91</v>
+        <v>389.48</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>86.20999999999999</v>
+        <v>101.26</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BEC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0200&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C14380407</t>
+          <t>C00782383</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CC(C)Cc1nnc(NC(=O)C2CCN(c3ccccc3[N+](=O)[O-])CC2)s1</t>
+          <t>Cc1cc(C)c2[nH]c(=O)c([C@H](c3nnnn3C(C)(C)C)[NH+]3CCCCC3)cc2c1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CC(C)Cc1nnc(NC(=O)C2CCN(c3ccccc3[N+](=O)[O-])CC2)s1</t>
+          <t>Cc1cc(C)c2[nH]c(=O)c([C@H](c3nnnn3C(C)(C)C)[NH+]3CCCCC3)cc2c1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>389.48</v>
+        <v>395.53</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
         <v>3</v>
       </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
       <c r="M19" t="n">
-        <v>101.26</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BEF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0350&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C00782383</t>
+          <t>C39921159</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c2[nH]c(=O)c([C@H](c3nnnn3C(C)(C)C)[NH+]3CCCCC3)cc2c1</t>
+          <t>Cc1ccc(Nc2oc3cc(C)oc(=O)c3c2-c2ccncc2)c(C)c1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c2[nH]c(=O)c([C@H](c3nnnn3C(C)(C)C)[NH+]3CCCCC3)cc2c1</t>
+          <t>Cc1ccc(Nc2oc3cc(C)oc(=O)c3c2-c2ccncc2)c(C)c1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1795,17 +1795,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>395.53</v>
+        <v>346.39</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>3</v>
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>80.90000000000001</v>
+        <v>68.27</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BD770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0430&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C39921159</t>
+          <t>C00115326</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2oc3cc(C)oc(=O)c3c2-c2ccncc2)c(C)c1</t>
+          <t>CC(C)(C)/C=N/NC(=O)c1nc(-c2ccc(C(C)(C)C)cc2)no1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2oc3cc(C)oc(=O)c3c2-c2ccncc2)c(C)c1</t>
+          <t>CC(C)(C)/C=N/NC(=O)c1nc(-c2ccc(C(C)(C)C)cc2)no1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>346.39</v>
+        <v>328.42</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>68.27</v>
+        <v>80.38</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BD540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0580&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C00115326</t>
+          <t>C38657178</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CC(C)(C)/C=N/NC(=O)c1nc(-c2ccc(C(C)(C)C)cc2)no1</t>
+          <t>CCc1ccc(O[C@H](C)C(=O)Oc2ccc3c(c2)OC(N)=C(C#N)[C@H]3c2ccc(OC)cc2OC)cc1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CC(C)(C)/C=N/NC(=O)c1nc(-c2ccc(C(C)(C)C)cc2)no1</t>
+          <t>CCc1ccc(O[C@H](C)C(=O)Oc2ccc3c(c2)OC(N)=C(C#N)[C@H]3c2ccc(OC)cc2OC)cc1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>328.42</v>
+        <v>500.55</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
       <c r="M22" t="n">
-        <v>80.38</v>
+        <v>113.03</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BE420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0740&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C38657178</t>
+          <t>CHEMBL1910715</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CCc1ccc(O[C@H](C)C(=O)Oc2ccc3c(c2)OC(N)=C(C#N)[C@H]3c2ccc(OC)cc2OC)cc1</t>
+          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CCc1ccc(O[C@H](C)C(=O)Oc2ccc3c(c2)OC(N)=C(C#N)[C@H]3c2ccc(OC)cc2OC)cc1</t>
+          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1999,40 +1999,66 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>500.55</v>
+        <v>327.34</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>113.03</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+        <v>81.77</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>11</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>CHEMBL1913273</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Inhibition of human recombinant FAK at 10 uM after 4 hrs by Kinase-Glo luminescent assay</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BEB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D07B0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2070,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL1910715</t>
+          <t>CHEMBL4207014</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2078,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
+          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
+          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,16 +2097,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>327.34</v>
+        <v>405.44</v>
       </c>
       <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
         <v>3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
@@ -2089,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>81.77</v>
+        <v>132.44</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,16 +2133,16 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>CHEMBL1913273</t>
+          <t>CHEMBL4190967</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant FAK at 10 uM after 4 hrs by Kinase-Glo luminescent assay</t>
+          <t>Inhibition of recombinant human FAK (411 to 686 residues) at 1 uM using EEEEYEEEEEEYYIIEEEEEEYEEEEEEYYEEEEEEKKKK as substrate after 40 mins in presence of [gamma-33P]ATP by scintillation counting method</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2126,104 +2152,10 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BEC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0820&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CHEMBL4207014</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>405.44</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>132.44</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>CHEMBL4190967</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human FAK (411 to 686 residues) at 1 uM using EEEEYEEEEEEYYIIEEEEEEYEEEEEEYYEEEEEEKKKK as substrate after 40 mins in presence of [gamma-33P]ATP by scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7BEE30&gt;</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_valid.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL206876</t>
+          <t>CHEMBL425418</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(Cc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(Cc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>458.48</v>
+        <v>491.55</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -584,16 +584,16 @@
         <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>124.89</v>
+        <v>115.66</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F2130834C0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL425418</t>
+          <t>CHEMBL206255</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,35 +624,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>491.55</v>
+        <v>434.45</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>115.66</v>
+        <v>107.73</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213082B90&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL207820</t>
+          <t>CHEMBL207961</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,35 +692,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4F)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4F)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>395.39</v>
+        <v>504.59</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>83.31999999999999</v>
+        <v>102.77</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213082730&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL470316</t>
+          <t>CHEMBL204686</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(Br)c(NCc4ccccn4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(Br)c(NCc4ccccn4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>411.26</v>
+        <v>518.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>91.83</v>
+        <v>102.77</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213082650&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL382354</t>
+          <t>CHEMBL380515</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>415.45</v>
+        <v>433.47</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>94.22</v>
+        <v>99.53</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213082340&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL439154</t>
+          <t>CHEMBL380226</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCC#N)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCC#N)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>473.53</v>
+        <v>459.47</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>99.53</v>
+        <v>136.21</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213082260&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL380515</t>
+          <t>CHEMBL207834</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>433.47</v>
+        <v>476.54</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>99.53</v>
+        <v>125.55</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5B8660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213082180&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL207834</t>
+          <t>CHEMBL207499</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCC(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)NCC(C)C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1047,20 +1047,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>476.54</v>
+        <v>503.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>125.55</v>
+        <v>99.53</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213081FC0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213081E00&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C13567629</t>
+          <t>C20478434</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C=CCN1C(=O)[C@@]2(C(C#N)=C(N)N(c3ccc(Cl)cc3)C3=C2C(=O)CCC3)c2ccccc21</t>
+          <t>O=C(CSc1n[nH]c(NN=C2CCCC2)n1)Nc1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C=CCN1C(=O)[C@@]2(C(C#N)=C(N)N(c3ccc(Cl)cc3)C3=C2C(=O)CCC3)c2ccccc21</t>
+          <t>O=C(CSc1n[nH]c(NN=C2CCCC2)n1)Nc1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>456.93</v>
+        <v>409.31</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
       </c>
       <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
         <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>90.43000000000001</v>
+        <v>95.06</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301E340&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C08739297</t>
+          <t>C63385141</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CC1(C)C[C@@]2(CCC[NH+](Cc3nc(O)c4c(n3)-c3ccccc3CC43CCCC3)C2)CCO1</t>
+          <t>CCCN1C(=O)[C@@]2(NCCC3=c4cc(OC)ccc4=[NH+][C@@H]32)c2cc(Br)ccc21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CC1(C)C[C@@]2(CCC[NH+](Cc3nc(O)c4c(n3)-c3ccccc3CC43CCCC3)C2)CCO1</t>
+          <t>CCCN1C(=O)[C@@]2(NCCC3=c4cc(OC)ccc4=[NH+][C@@H]32)c2cc(Br)ccc21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>448.63</v>
+        <v>441.35</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>59.68</v>
+        <v>55.54</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301D460&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301EAB0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C39667868</t>
+          <t>C37004675</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@H]1C2=C(C[C@@H](C)CC2)S[C@@H]1NC(=O)CSc1nc(C)c(CCC(=O)O)c(=O)[nH]1</t>
+          <t>C[C@H]1CCC[C@H](Nc2cc(-n3cnnn3)ccc2Cl)C1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CCOC(=O)[C@H]1C2=C(C[C@@H](C)CC2)S[C@@H]1NC(=O)CSc1nc(C)c(CCC(=O)O)c(=O)[nH]1</t>
+          <t>C[C@H]1CCC[C@H](Nc2cc(-n3cnnn3)ccc2Cl)C1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>495.62</v>
+        <v>291.79</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9</v>
       </c>
       <c r="K14" t="n">
         <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>138.45</v>
+        <v>55.63</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301D7E0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C48436064</t>
+          <t>C28055458</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COCc1ccc(-c2nc3c(C)nn(C4CCCCC4)c3[nH]2)o1</t>
+          <t>Fc1ccc([C@@H]2C3=C(Nc4nnnn42)c2cc(Cl)ccc2O[C@@H]3c2cccs2)cc1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COCc1ccc(-c2nc3c(C)nn(C4CCCCC4)c3[nH]2)o1</t>
+          <t>Fc1ccc([C@@H]2C3=C(Nc4nnnn42)c2cc(Cl)ccc2O[C@@H]3c2cccs2)cc1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>314.39</v>
+        <v>437.89</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>68.87</v>
+        <v>64.86</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301D770&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C39362494</t>
+          <t>C59168731</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CCOc1ccc(N2[C@@H](Cc3cc(=O)[nH]c(=O)[nH]3)N=N[C@H]2S[C@H](C)CC)cc1</t>
+          <t>Oc1ccc([C@H]2Nn3c(COc4ccccc4)nnc3S2)c(O)c1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CCOc1ccc(N2[C@H](S[C@H](C)CC)N=N[C@@H]2Cc2cc(=O)[nH]c(=O)[nH]2)cc1</t>
+          <t>Oc1ccc([C@H]2Nn3c(COc4ccccc4)nnc3S2)c(O)c1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>403.51</v>
+        <v>342.38</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
         <v>3</v>
       </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
       <c r="M16" t="n">
-        <v>102.91</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301D000&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C09423983</t>
+          <t>C39667868</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cn1c(N/N=C/c2cccs2)nc2c1c(=O)n(Cc1ccccc1Cl)c(=O)n2C</t>
+          <t>CCOC(=O)[C@H]1C2=C(C[C@@H](C)CC2)S[C@@H]1NC(=O)CSc1nc(C)c(CCC(=O)O)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cn1c(N/N=C/c2cccs2)nc2c1c(=O)n(Cc1ccccc1Cl)c(=O)n2C</t>
+          <t>CCOC(=O)[C@H]1C2=C(C[C@@H](C)CC2)S[C@@H]1NC(=O)CSc1nc(C)c(CCC(=O)O)c(=O)[nH]1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>428.91</v>
+        <v>495.62</v>
       </c>
       <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4</v>
-      </c>
       <c r="M17" t="n">
-        <v>86.20999999999999</v>
+        <v>138.45</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301C6D0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C14380407</t>
+          <t>C25052093</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CC(C)Cc1nnc(NC(=O)C2CCN(c3ccccc3[N+](=O)[O-])CC2)s1</t>
+          <t>C[C@H](Sc1nnc(N2CCCCC2)n1-c1ccccc1)c1nc(N)nc(N(C)C)n1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CC(C)Cc1nnc(NC(=O)C2CCN(c3ccccc3[N+](=O)[O-])CC2)s1</t>
+          <t>C[C@H](Sc1nnc(N2CCCCC2)n1-c1ccccc1)c1nc(N)nc(N(C)C)n1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>389.48</v>
+        <v>425.57</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
       </c>
       <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
         <v>3</v>
       </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
       <c r="M18" t="n">
-        <v>101.26</v>
+        <v>101.88</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301F990&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C00782383</t>
+          <t>C24876621</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c2[nH]c(=O)c([C@H](c3nnnn3C(C)(C)C)[NH+]3CCCCC3)cc2c1</t>
+          <t>CCOc1ccccc1NC(=O)CN1C(=O)N[C@](C)(Cc2ccc3c(c2)OCO3)C1=O</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c2[nH]c(=O)c([C@H](c3nnnn3C(C)(C)C)[NH+]3CCCCC3)cc2c1</t>
+          <t>CCOc1ccccc1NC(=O)CN1C(=O)N[C@](C)(Cc2ccc3c(c2)OCO3)C1=O</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>395.53</v>
+        <v>425.44</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>80.90000000000001</v>
+        <v>106.2</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301FA00&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C39921159</t>
+          <t>C48436064</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2oc3cc(C)oc(=O)c3c2-c2ccncc2)c(C)c1</t>
+          <t>COCc1ccc(-c2nc3c(C)nn(C4CCCCC4)c3[nH]2)o1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1ccc(Nc2oc3cc(C)oc(=O)c3c2-c2ccncc2)c(C)c1</t>
+          <t>COCc1ccc(-c2nc3c(C)nn(C4CCCCC4)c3[nH]2)o1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1795,29 +1795,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>346.39</v>
+        <v>314.39</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
       <c r="M20" t="n">
-        <v>68.27</v>
+        <v>68.87</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301C5F0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C00115326</t>
+          <t>C39362494</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CC(C)(C)/C=N/NC(=O)c1nc(-c2ccc(C(C)(C)C)cc2)no1</t>
+          <t>CCOc1ccc(N2[C@@H](Cc3cc(=O)[nH]c(=O)[nH]3)N=N[C@H]2S[C@H](C)CC)cc1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CC(C)(C)/C=N/NC(=O)c1nc(-c2ccc(C(C)(C)C)cc2)no1</t>
+          <t>CCOc1ccc(N2[C@H](S[C@H](C)CC)N=N[C@@H]2Cc2cc(=O)[nH]c(=O)[nH]2)cc1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1863,29 +1863,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>328.42</v>
+        <v>403.51</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
         <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>80.38</v>
+        <v>102.91</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301FBC0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C38657178</t>
+          <t>C11052640</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CCc1ccc(O[C@H](C)C(=O)Oc2ccc3c(c2)OC(N)=C(C#N)[C@H]3c2ccc(OC)cc2OC)cc1</t>
+          <t>Cc1sc2nc([C@@H](C)OC(=O)CCNS(=O)(=O)c3ccc4ccccc4c3)[nH]c(=O)c2c1C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CCc1ccc(O[C@H](C)C(=O)Oc2ccc3c(c2)OC(N)=C(C#N)[C@H]3c2ccc(OC)cc2OC)cc1</t>
+          <t>Cc1sc2nc([C@@H](C)OC(=O)CCNS(=O)(=O)c3ccc4ccccc4c3)[nH]c(=O)c2c1C</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>500.55</v>
+        <v>485.59</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>113.03</v>
+        <v>118.22</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301E110&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL1910715</t>
+          <t>C12783993</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
+          <t>COC(=O)c1sc(N)c(C(=O)OC)c1CSc1nnc(-c2ccccc2)n1Cc1ccco1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O=C(c1c[nH]c2ccccc12)c1nccc2c1[nH]c1ccc(O)cc12</t>
+          <t>COC(=O)c1sc(N)c(C(=O)OC)c1CSc1nnc(-c2ccccc2)n1Cc1ccco1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1999,66 +1999,40 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>327.34</v>
+        <v>484.56</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>81.77</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>11</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>CHEMBL1913273</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant FAK at 10 uM after 4 hrs by Kinase-Glo luminescent assay</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>122.47</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D07B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301E030&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2070,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL4207014</t>
+          <t>C26575932</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2078,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
+          <t>CCC[C@H]1CC[C@H](c2ccc(-c3ccccc3-c3nnn[n-]3)cc2)n2c1n[nH]c2=O</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1ccc(-n2nc(-c3cnc4[nH]ccc4c3)c3c(N)ncnc32)cc1</t>
+          <t>CCC[C@H]1CC[C@H](c2ccc(-c3ccccc3-c3nnn[n-]3)cc2)n2c1n[nH]c2=O</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2093,66 +2067,40 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>405.44</v>
+        <v>400.47</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>132.44</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>CHEMBL4190967</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human FAK (411 to 686 residues) at 1 uM using EEEEYEEEEEEYYIIEEEEEEYEEEEEEYYEEEEEEKKKK as substrate after 40 mins in presence of [gamma-33P]ATP by scintillation counting method</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>103.45</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5D0820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301DFC0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
